--- a/design/шаблоны.xlsx
+++ b/design/шаблоны.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>поавдпв</t>
+          <t>второй</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>447284723</t>
+          <t>554455</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/Users/valeriashchepilova/Downloads/test</t>
+          <t>/Users/valeriashchepilova/PycharmProjects/def_det_n_class/spam</t>
         </is>
       </c>
     </row>

--- a/design/шаблоны.xlsx
+++ b/design/шаблоны.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>второй</t>
+          <t>второе</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>554455</t>
+          <t>4543544</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/Users/valeriashchepilova/PycharmProjects/def_det_n_class/spam</t>
+          <t>/Users/valeriashchepilova/PycharmProjects/def_det_n_class/3d</t>
         </is>
       </c>
     </row>

--- a/design/шаблоны.xlsx
+++ b/design/шаблоны.xlsx
@@ -453,17 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>второе</t>
+          <t>аовалыдав</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4543544</t>
-        </is>
+      <c r="B2" t="n">
+        <v>84920394</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/Users/valeriashchepilova/PycharmProjects/def_det_n_class/3d</t>
+          <t>/Users/valeriashchepilova/Downloads/test</t>
         </is>
       </c>
     </row>
